--- a/documents/tid_psam_available_IDs.xlsx
+++ b/documents/tid_psam_available_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ed4f07ee8ffadcc/Uni_Oldenburg/4_Semester/Master_Thesis/Analysis_Experiment/psam/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4DB114E441178AC67DF4635E12F482683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4175F109-5126-405F-B98C-08631D35D612}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4DB114E441178AC67DF4635E12F482683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49058582-8CF8-4A07-A1CA-D30D64825C96}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="7020" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>sub-01</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Available?</t>
-  </si>
-  <si>
-    <t>Comments (no real names here!)</t>
   </si>
 </sst>
 </file>
@@ -220,6 +217,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -497,261 +498,223 @@
     <col min="3" max="3" width="28.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
